--- a/examples/spr-submission.xlsx
+++ b/examples/spr-submission.xlsx
@@ -417,7 +417,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- on rate; Ka in M^-1s^-1: TODO</t>
+          <t>- Standard deviation in M^-1s^-1: TODO</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- off rate; Kd in 1/s: TODO</t>
+          <t>- Standard deviation in 1/s: TODO</t>
         </is>
       </c>
     </row>
@@ -445,7 +445,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- dissociation constant; KD in nM: TODO</t>
+          <t>- Standard deviation in nM: TODO</t>
         </is>
       </c>
     </row>
@@ -488,11 +488,11 @@
     <col customWidth="1" max="2" min="2" width="15"/>
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="23"/>
-    <col customWidth="1" max="5" min="5" width="23"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
     <col customWidth="1" max="6" min="6" width="19"/>
-    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="31"/>
-    <col customWidth="1" max="9" min="9" width="31"/>
+    <col customWidth="1" max="9" min="9" width="24"/>
     <col customWidth="1" max="10" min="10" width="20"/>
     <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
@@ -520,7 +520,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>on rate; Ka in M^-1s^-1</t>
+          <t>Standard deviation in M^-1s^-1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>off rate; Kd in 1/s</t>
+          <t>Standard deviation in 1/s</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>dissociation constant; KD in nM</t>
+          <t>Standard deviation in nM</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -556,6 +556,11 @@
     </row>
     <row r="2"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="J2:J100" type="list">
+      <formula1>=Terminology!$A$2:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -566,14 +571,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Qualitiative measure</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" scenarios="0" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/examples/spr-submission.xlsx
+++ b/examples/spr-submission.xlsx
@@ -389,77 +389,77 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Antibody label: TODO</t>
+          <t>- Antibody label: the COVIC label for the antibody (e.g. COVIC 1)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- Tested antigen: TODO</t>
+          <t>- Tested antigen: the name of the tested antigen (e.g. Spike protein 1)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>- n: TODO</t>
+          <t>- n: the number of runs for the assay (e.g. 6)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>- on rate; Ka in M^-1s^-1: TODO</t>
+          <t>- on rate; Ka in M^-1s^-1: an SPR assay measuring on rate [Ka] in M^-1s^-1 (e.g. 491000)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- Standard deviation in M^-1s^-1: TODO</t>
+          <t>- Standard deviation in M^-1s^-1: The standard deviation of the value in 'Standard deviation in M^-1s^-1'</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>- off rate; Kd in 1/s: TODO</t>
+          <t>- off rate; Kd in 1/s: an SPR assay measuring off rate [Kd] in 1/s (e.g. 126)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- Standard deviation in 1/s: TODO</t>
+          <t>- Standard deviation in 1/s: The standard deviation of the value in 'Standard deviation in 1/s'</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- dissociation constant; KD in nM: TODO</t>
+          <t>- dissociation constant; KD in nM: an SPR assay measuring dissociation constant [KD] in nM (e.g. &lt;.1)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- Standard deviation in nM: TODO</t>
+          <t>- Standard deviation in nM: The standard deviation of the value in 'Standard deviation in nM'</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>- Qualitiative measure: TODO</t>
+          <t>- Qualitiative measure: the qualitative measure of the assay (e.g. positive)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Comment: TODO</t>
+          <t>- Comment: general comments about the assay (e.g. did not bind positive control)</t>
         </is>
       </c>
     </row>
